--- a/emilia_romagna/COVID-19_emilia_romagna.xlsx
+++ b/emilia_romagna/COVID-19_emilia_romagna.xlsx
@@ -5,19 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\parse_COVID-19\emilia-romagna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\tmp\parse_COVID-19\emilia_romagna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB10B7-91E0-4467-A9BE-BA675F3E68C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875B0ADB-5758-420F-A184-960BE2E1D4F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="32" r:id="rId1"/>
-    <sheet name="Emilia Romagna 25-03" sheetId="39" r:id="rId2"/>
-    <sheet name="g Emilia-Romagna 25-03 (EXP)" sheetId="31" r:id="rId3"/>
-    <sheet name="g Emilia-Romagna 25-03 (X)" sheetId="40" r:id="rId4"/>
-    <sheet name="g Emilia-Romagna 25-03 (X2)" sheetId="41" r:id="rId5"/>
+    <sheet name="Emilia Romagna 27-03" sheetId="42" r:id="rId2"/>
+    <sheet name="g Emilia-Romagna 27-03 (EXP)" sheetId="45" r:id="rId3"/>
+    <sheet name="Emilia Romagna 26-03" sheetId="43" r:id="rId4"/>
+    <sheet name="g Emilia-Romagna 26-03 (X)" sheetId="44" r:id="rId5"/>
+    <sheet name="Emilia Romagna 25-03" sheetId="39" r:id="rId6"/>
+    <sheet name="g Emilia-Romagna 25-03 (EXP)" sheetId="31" r:id="rId7"/>
+    <sheet name="g Emilia-Romagna 25-03 (X)" sheetId="40" r:id="rId8"/>
+    <sheet name="g Emilia-Romagna 25-03 (X2)" sheetId="41" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
   <si>
     <t>Data</t>
   </si>
@@ -231,6 +235,24 @@
   <si>
     <t>y = -0.0157x2 - 0.4609x + 9.6479</t>
   </si>
+  <si>
+    <t>26/03/2020</t>
+  </si>
+  <si>
+    <t>27/03/2020</t>
+  </si>
+  <si>
+    <t>Estimated days from peak since 17/03/2020</t>
+  </si>
+  <si>
+    <t>y = -0.6143x + 9.2895</t>
+  </si>
+  <si>
+    <t>y = 9.6433e-0.115x</t>
+  </si>
+  <si>
+    <t>0.6341x + 9.9943</t>
+  </si>
 </sst>
 </file>
 
@@ -296,6 +318,1256 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>EMILIA-ROMAGNA</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>total deceased(i) / total deceased (i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.982892953765707E-3"/>
+                  <c:y val="-7.7092274333823638E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 9.6433e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>-0.115x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.975</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Emilia Romagna 27-03'!$M$25:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Emilia Romagna 27-03'!$W$25:$W$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.1785714285714288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5294117647058822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3274336283185839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5890410958904111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4378109452736316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0871369294605806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7922535211267605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3930635838150289</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.223918575063613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-644A-40A6-8F21-EE77CF0A5AEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211547168"/>
+        <c:axId val="202768784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211547168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Giorni trascorsi dal 17/3/2020</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Days after March 17, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202768784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="202768784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211547168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>EMILIA-ROMAGNA</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>totale deceduti(i) / totale deceduti(i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>total deceased(i) / total deceased (i-10)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.8933298167882144E-3"/>
+                  <c:y val="-0.16342085140182655"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = -0.6143x + 9.2895</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9623</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Emilia Romagna 26-03'!$M$24:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Emilia Romagna 26-03'!$W$24:$W$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.1875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1785714285714288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5294117647058822</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3274336283185839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5890410958904111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4378109452736316</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0871369294605806</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7922535211267605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3930635838150289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D24-4C47-9817-C514DF0F6C33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="211547168"/>
+        <c:axId val="202768784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="211547168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1400"/>
+                  <a:t>Giorni trascorsi dal 16/3/2020</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Days after March 16, 2020</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202768784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="202768784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211547168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -924,7 +2196,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1545,7 +2817,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2303,6 +3575,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3851,7 +5203,1065 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B5472093-5BDD-4627-A2F1-9C89753DE31E}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BDD10BD4-2246-4E00-9092-685D7C8DE67B}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6163AFED-0AB9-413A-8E5D-55C1877518F7}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3864,7 +6274,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A0A5F3D2-4372-4E66-ABCA-2194C502B1CA}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3877,7 +6287,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6DCB24A4-3CD3-4568-8A65-E95EA064174D}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3891,6 +6301,72 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C421B5-070F-49D1-BD57-E5BBC78A51F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8A0495-5914-43B5-A8CC-9FA73FFCF551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3923,7 +6399,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3956,7 +6432,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -4312,8 +6788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81204A6-BF5F-4707-8639-B58903F8FBA7}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,12 +6869,54 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-0.61429999999999996</v>
+      </c>
+      <c r="D3" s="3">
+        <v>9.2895000000000003</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="G3" s="3">
+        <f>INT(1+(1-D3)/C3)</f>
+        <v>14</v>
+      </c>
+      <c r="H3" s="4">
+        <f>A3-10+G3</f>
+        <v>43920</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.6433</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.115</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G4" s="3">
+        <f>INT(0.5-LN(C4)/D4)</f>
+        <v>20</v>
+      </c>
+      <c r="H4" s="4">
+        <f>A4-10+G4</f>
+        <v>43927</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -4440,11 +6958,5008 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B7BB1A-15D1-46C7-ACE2-373A41D666FA}">
+  <dimension ref="A1:X52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25:X34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>148</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>391</v>
+      </c>
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>577</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>1033</v>
+      </c>
+      <c r="E5">
+        <v>97</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>96</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>1277</v>
+      </c>
+      <c r="E6">
+        <v>145</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>143</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>62</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>1550</v>
+      </c>
+      <c r="E7">
+        <v>217</v>
+      </c>
+      <c r="F7">
+        <v>86</v>
+      </c>
+      <c r="G7">
+        <v>213</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>97</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>1795</v>
+      </c>
+      <c r="E8">
+        <v>285</v>
+      </c>
+      <c r="F8">
+        <v>127</v>
+      </c>
+      <c r="G8">
+        <v>277</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>140</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>1973</v>
+      </c>
+      <c r="E9">
+        <v>335</v>
+      </c>
+      <c r="F9">
+        <v>148</v>
+      </c>
+      <c r="G9">
+        <v>324</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>164</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>2012</v>
+      </c>
+      <c r="E10">
+        <v>420</v>
+      </c>
+      <c r="F10">
+        <v>187</v>
+      </c>
+      <c r="G10">
+        <v>398</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>211</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>2500</v>
+      </c>
+      <c r="E11">
+        <v>544</v>
+      </c>
+      <c r="F11">
+        <v>256</v>
+      </c>
+      <c r="G11">
+        <v>516</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>282</v>
+      </c>
+      <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>142</v>
+      </c>
+      <c r="D12">
+        <v>2884</v>
+      </c>
+      <c r="E12">
+        <v>698</v>
+      </c>
+      <c r="F12">
+        <v>327</v>
+      </c>
+      <c r="G12">
+        <v>658</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>359</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>158</v>
+      </c>
+      <c r="D13">
+        <v>3136</v>
+      </c>
+      <c r="E13">
+        <v>870</v>
+      </c>
+      <c r="F13">
+        <v>397</v>
+      </c>
+      <c r="G13">
+        <v>816</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>450</v>
+      </c>
+      <c r="J13">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>121</v>
+      </c>
+      <c r="D14">
+        <v>3604</v>
+      </c>
+      <c r="E14">
+        <v>1010</v>
+      </c>
+      <c r="F14">
+        <v>464</v>
+      </c>
+      <c r="G14">
+        <v>937</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>528</v>
+      </c>
+      <c r="J14">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>160</v>
+      </c>
+      <c r="D15">
+        <v>4344</v>
+      </c>
+      <c r="E15">
+        <v>1180</v>
+      </c>
+      <c r="F15">
+        <v>542</v>
+      </c>
+      <c r="G15">
+        <v>1097</v>
+      </c>
+      <c r="H15">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>617</v>
+      </c>
+      <c r="J15">
+        <v>56</v>
+      </c>
+      <c r="K15">
+        <v>480</v>
+      </c>
+      <c r="N15" s="3">
+        <v>9.6433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>189</v>
+      </c>
+      <c r="D16">
+        <v>4906</v>
+      </c>
+      <c r="E16">
+        <v>1386</v>
+      </c>
+      <c r="F16">
+        <v>576</v>
+      </c>
+      <c r="G16">
+        <v>1286</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>666</v>
+      </c>
+      <c r="J16">
+        <v>70</v>
+      </c>
+      <c r="K16">
+        <v>620</v>
+      </c>
+      <c r="N16">
+        <v>-0.115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>98</v>
+      </c>
+      <c r="C17">
+        <v>131</v>
+      </c>
+      <c r="D17">
+        <v>5494</v>
+      </c>
+      <c r="E17">
+        <v>1533</v>
+      </c>
+      <c r="F17">
+        <v>669</v>
+      </c>
+      <c r="G17">
+        <v>1417</v>
+      </c>
+      <c r="H17">
+        <v>31</v>
+      </c>
+      <c r="I17">
+        <v>767</v>
+      </c>
+      <c r="J17">
+        <v>85</v>
+      </c>
+      <c r="K17">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>104</v>
+      </c>
+      <c r="C18">
+        <v>171</v>
+      </c>
+      <c r="D18">
+        <v>6640</v>
+      </c>
+      <c r="E18">
+        <v>1739</v>
+      </c>
+      <c r="F18">
+        <v>745</v>
+      </c>
+      <c r="G18">
+        <v>1588</v>
+      </c>
+      <c r="H18">
+        <v>38</v>
+      </c>
+      <c r="I18">
+        <v>849</v>
+      </c>
+      <c r="J18">
+        <v>113</v>
+      </c>
+      <c r="K18">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>170</v>
+      </c>
+      <c r="D19">
+        <v>7600</v>
+      </c>
+      <c r="E19">
+        <v>1947</v>
+      </c>
+      <c r="F19">
+        <v>814</v>
+      </c>
+      <c r="G19">
+        <v>1758</v>
+      </c>
+      <c r="H19">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <v>926</v>
+      </c>
+      <c r="J19">
+        <v>146</v>
+      </c>
+      <c r="K19">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>253</v>
+      </c>
+      <c r="D20">
+        <v>8787</v>
+      </c>
+      <c r="E20">
+        <v>2263</v>
+      </c>
+      <c r="F20">
+        <v>942</v>
+      </c>
+      <c r="G20">
+        <v>2011</v>
+      </c>
+      <c r="H20">
+        <v>51</v>
+      </c>
+      <c r="I20">
+        <v>1070</v>
+      </c>
+      <c r="J20">
+        <v>201</v>
+      </c>
+      <c r="K20">
+        <v>941</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N34" si="0">J20/J19</f>
+        <v>1.3767123287671232</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ref="O20:O34" si="1">J20/J18</f>
+        <v>1.7787610619469028</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ref="P20:P34" si="2">J20/J17</f>
+        <v>2.3647058823529412</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:Q34" si="3">J20/J16</f>
+        <v>2.8714285714285714</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" ref="R20:R34" si="4">J20/J15</f>
+        <v>3.5892857142857144</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S34" si="5">J20/J14</f>
+        <v>4.1875</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" ref="T20:T34" si="6">J20/J13</f>
+        <v>5.4324324324324325</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:U34" si="7">J20/J12</f>
+        <v>6.7</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" ref="V20:V34" si="8">J20/J11</f>
+        <v>9.1363636363636367</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" ref="W20:W34" si="9">J20/J10</f>
+        <v>11.166666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>152</v>
+      </c>
+      <c r="C21">
+        <v>338</v>
+      </c>
+      <c r="D21">
+        <v>10043</v>
+      </c>
+      <c r="E21">
+        <v>2644</v>
+      </c>
+      <c r="F21">
+        <v>1076</v>
+      </c>
+      <c r="G21">
+        <v>2349</v>
+      </c>
+      <c r="H21">
+        <v>54</v>
+      </c>
+      <c r="I21">
+        <v>1228</v>
+      </c>
+      <c r="J21">
+        <v>241</v>
+      </c>
+      <c r="K21">
+        <v>1121</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1990049751243781</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6506849315068493</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1327433628318584</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.835294117647059</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4428571428571431</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3035714285714288</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="6"/>
+        <v>5.020833333333333</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="7"/>
+        <v>6.5135135135135132</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="8"/>
+        <v>8.0333333333333332</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="9"/>
+        <v>10.954545454545455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>169</v>
+      </c>
+      <c r="C22">
+        <v>392</v>
+      </c>
+      <c r="D22">
+        <v>12054</v>
+      </c>
+      <c r="E22">
+        <v>3093</v>
+      </c>
+      <c r="F22">
+        <v>1215</v>
+      </c>
+      <c r="G22">
+        <v>2741</v>
+      </c>
+      <c r="H22">
+        <v>68</v>
+      </c>
+      <c r="I22">
+        <v>1384</v>
+      </c>
+      <c r="J22">
+        <v>284</v>
+      </c>
+      <c r="K22">
+        <v>1357</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1784232365145229</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4129353233830846</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9452054794520548</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5132743362831858</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3411764705882354</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0571428571428569</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="6"/>
+        <v>5.0714285714285712</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="7"/>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="8"/>
+        <v>7.6756756756756754</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="9"/>
+        <v>9.4666666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>197</v>
+      </c>
+      <c r="C23">
+        <v>347</v>
+      </c>
+      <c r="D23">
+        <v>13096</v>
+      </c>
+      <c r="E23">
+        <v>3522</v>
+      </c>
+      <c r="F23">
+        <v>1362</v>
+      </c>
+      <c r="G23">
+        <v>3088</v>
+      </c>
+      <c r="H23">
+        <v>88</v>
+      </c>
+      <c r="I23">
+        <v>1559</v>
+      </c>
+      <c r="J23">
+        <v>346</v>
+      </c>
+      <c r="K23">
+        <v>1529</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2183098591549295</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4356846473029046</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7213930348258706</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3698630136986303</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0619469026548671</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0705882352941174</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="6"/>
+        <v>4.9428571428571431</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="7"/>
+        <v>6.1785714285714288</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="8"/>
+        <v>7.208333333333333</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="9"/>
+        <v>9.3513513513513509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>223</v>
+      </c>
+      <c r="C24">
+        <v>316</v>
+      </c>
+      <c r="D24">
+        <v>14510</v>
+      </c>
+      <c r="E24">
+        <v>3931</v>
+      </c>
+      <c r="F24">
+        <v>1566</v>
+      </c>
+      <c r="G24">
+        <v>3404</v>
+      </c>
+      <c r="H24">
+        <v>134</v>
+      </c>
+      <c r="I24">
+        <v>1789</v>
+      </c>
+      <c r="J24">
+        <v>393</v>
+      </c>
+      <c r="K24">
+        <v>1615</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1358381502890174</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3838028169014085</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6307053941908713</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.955223880597015</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6917808219178081</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4778761061946901</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6235294117647054</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="7"/>
+        <v>5.6142857142857139</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="8"/>
+        <v>7.0178571428571432</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="9"/>
+        <v>8.1875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>247</v>
+      </c>
+      <c r="C25">
+        <v>511</v>
+      </c>
+      <c r="D25">
+        <v>15461</v>
+      </c>
+      <c r="E25">
+        <v>4525</v>
+      </c>
+      <c r="F25">
+        <v>1784</v>
+      </c>
+      <c r="G25">
+        <v>3915</v>
+      </c>
+      <c r="H25">
+        <v>152</v>
+      </c>
+      <c r="I25">
+        <v>2031</v>
+      </c>
+      <c r="J25">
+        <v>458</v>
+      </c>
+      <c r="K25">
+        <v>1884</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1653944020356235</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.323699421965318</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6126760563380282</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.900414937759336</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2786069651741294</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1369863013698631</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="6"/>
+        <v>4.053097345132743</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3882352941176475</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="8"/>
+        <v>6.5428571428571427</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="9"/>
+        <v>8.1785714285714288</v>
+      </c>
+      <c r="X25">
+        <f>$N$15*EXP($N$16*M25)</f>
+        <v>8.5957111355367459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>260</v>
+      </c>
+      <c r="C26">
+        <v>591</v>
+      </c>
+      <c r="D26">
+        <v>18344</v>
+      </c>
+      <c r="E26">
+        <v>5214</v>
+      </c>
+      <c r="F26">
+        <v>1900</v>
+      </c>
+      <c r="G26">
+        <v>4506</v>
+      </c>
+      <c r="H26">
+        <v>177</v>
+      </c>
+      <c r="I26">
+        <v>2160</v>
+      </c>
+      <c r="J26">
+        <v>531</v>
+      </c>
+      <c r="K26">
+        <v>2346</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1593886462882097</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3511450381679388</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5346820809248556</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.869718309859155</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="4"/>
+        <v>2.203319502074689</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6417910447761193</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="6"/>
+        <v>3.6369863013698631</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="7"/>
+        <v>4.6991150442477876</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="8"/>
+        <v>6.2470588235294118</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="9"/>
+        <v>7.5857142857142854</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26:X34" si="10">$N$15*EXP($N$16*M26)</f>
+        <v>7.6619258890204014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>267</v>
+      </c>
+      <c r="C27">
+        <v>583</v>
+      </c>
+      <c r="D27">
+        <v>20753</v>
+      </c>
+      <c r="E27">
+        <v>5968</v>
+      </c>
+      <c r="F27">
+        <v>2083</v>
+      </c>
+      <c r="G27">
+        <v>5089</v>
+      </c>
+      <c r="H27">
+        <v>239</v>
+      </c>
+      <c r="I27">
+        <v>2350</v>
+      </c>
+      <c r="J27">
+        <v>640</v>
+      </c>
+      <c r="K27">
+        <v>2739</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2052730696798493</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3973799126637554</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6284987277353689</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8497109826589595</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2535211267605635</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6556016597510372</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1840796019900499</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3835616438356162</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="8"/>
+        <v>5.663716814159292</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="9"/>
+        <v>7.5294117647058822</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="10"/>
+        <v>6.8295813345960354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>265</v>
+      </c>
+      <c r="C28">
+        <v>572</v>
+      </c>
+      <c r="D28">
+        <v>24620</v>
+      </c>
+      <c r="E28">
+        <v>6705</v>
+      </c>
+      <c r="F28">
+        <v>2267</v>
+      </c>
+      <c r="G28">
+        <v>5661</v>
+      </c>
+      <c r="H28">
+        <v>329</v>
+      </c>
+      <c r="I28">
+        <v>2532</v>
+      </c>
+      <c r="J28">
+        <v>715</v>
+      </c>
+      <c r="K28">
+        <v>3129</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1171875</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3465160075329567</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5611353711790392</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8193384223918576</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0664739884393062</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="5"/>
+        <v>2.517605633802817</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="6"/>
+        <v>2.9668049792531122</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5572139303482588</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="8"/>
+        <v>4.897260273972603</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="9"/>
+        <v>6.3274336283185839</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="10"/>
+        <v>6.0876575787169394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>269</v>
+      </c>
+      <c r="C29">
+        <v>729</v>
+      </c>
+      <c r="D29">
+        <v>28022</v>
+      </c>
+      <c r="E29">
+        <v>7555</v>
+      </c>
+      <c r="F29">
+        <v>2429</v>
+      </c>
+      <c r="G29">
+        <v>6390</v>
+      </c>
+      <c r="H29">
+        <v>349</v>
+      </c>
+      <c r="I29">
+        <v>2698</v>
+      </c>
+      <c r="J29">
+        <v>816</v>
+      </c>
+      <c r="K29">
+        <v>3692</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1412587412587412</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.536723163841808</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7816593886462881</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0763358778625953</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3583815028901736</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8732394366197185</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="7"/>
+        <v>3.3858921161825726</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="8"/>
+        <v>4.0597014925373136</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="9"/>
+        <v>5.5890410958904111</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="10"/>
+        <v>5.4263318613661156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>276</v>
+      </c>
+      <c r="C30">
+        <v>830</v>
+      </c>
+      <c r="D30">
+        <v>31200</v>
+      </c>
+      <c r="E30">
+        <v>8535</v>
+      </c>
+      <c r="F30">
+        <v>2846</v>
+      </c>
+      <c r="G30">
+        <v>7220</v>
+      </c>
+      <c r="H30">
+        <v>423</v>
+      </c>
+      <c r="I30">
+        <v>3122</v>
+      </c>
+      <c r="J30">
+        <v>892</v>
+      </c>
+      <c r="K30">
+        <v>4098</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0931372549019607</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2475524475524475</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.39375</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="3"/>
+        <v>1.67984934086629</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9475982532751093</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2697201017811706</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5780346820809248</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="7"/>
+        <v>3.140845070422535</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="8"/>
+        <v>3.7012448132780085</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="9"/>
+        <v>4.4378109452736316</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="10"/>
+        <v>4.8368485068246923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>291</v>
+      </c>
+      <c r="C31">
+        <v>491</v>
+      </c>
+      <c r="D31">
+        <v>33527</v>
+      </c>
+      <c r="E31">
+        <v>9254</v>
+      </c>
+      <c r="F31">
+        <v>2974</v>
+      </c>
+      <c r="G31">
+        <v>7711</v>
+      </c>
+      <c r="H31">
+        <v>558</v>
+      </c>
+      <c r="I31">
+        <v>3265</v>
+      </c>
+      <c r="J31">
+        <v>985</v>
+      </c>
+      <c r="K31">
+        <v>4446</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1042600896860986</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2071078431372548</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3776223776223777</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5390625</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8549905838041432</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1506550218340612</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5063613231552164</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="7"/>
+        <v>2.846820809248555</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="8"/>
+        <v>3.4683098591549295</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="9"/>
+        <v>4.0871369294605806</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="10"/>
+        <v>4.3114030021898415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>294</v>
+      </c>
+      <c r="C32">
+        <v>545</v>
+      </c>
+      <c r="D32">
+        <v>38045</v>
+      </c>
+      <c r="E32">
+        <v>10054</v>
+      </c>
+      <c r="F32">
+        <v>3180</v>
+      </c>
+      <c r="G32">
+        <v>8256</v>
+      </c>
+      <c r="H32">
+        <v>721</v>
+      </c>
+      <c r="I32">
+        <v>3474</v>
+      </c>
+      <c r="J32">
+        <v>1077</v>
+      </c>
+      <c r="K32">
+        <v>4782</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0934010152284264</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2073991031390134</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3198529411764706</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5062937062937063</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6828125</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0282485875706215</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3515283842794759</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7404580152671754</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="8"/>
+        <v>3.1127167630057802</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7922535211267605</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="10"/>
+        <v>3.8430386688902951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>301</v>
+      </c>
+      <c r="C33">
+        <v>594</v>
+      </c>
+      <c r="D33">
+        <v>42395</v>
+      </c>
+      <c r="E33">
+        <v>10816</v>
+      </c>
+      <c r="F33">
+        <v>3354</v>
+      </c>
+      <c r="G33">
+        <v>8850</v>
+      </c>
+      <c r="H33">
+        <v>792</v>
+      </c>
+      <c r="I33">
+        <v>3655</v>
+      </c>
+      <c r="J33">
+        <v>1174</v>
+      </c>
+      <c r="K33">
+        <v>5195</v>
+      </c>
+      <c r="M33">
+        <v>9</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0900649953574744</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1918781725888326</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3161434977578474</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4387254901960784</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="4"/>
+        <v>1.641958041958042</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8343750000000001</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2109227871939736</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5633187772925763</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="8"/>
+        <v>2.9872773536895676</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="9"/>
+        <v>3.3930635838150289</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="10"/>
+        <v>3.4255545591735843</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>308</v>
+      </c>
+      <c r="C34">
+        <v>511</v>
+      </c>
+      <c r="D34">
+        <v>47798</v>
+      </c>
+      <c r="E34">
+        <v>11588</v>
+      </c>
+      <c r="F34">
+        <v>3461</v>
+      </c>
+      <c r="G34">
+        <v>9361</v>
+      </c>
+      <c r="H34">
+        <v>960</v>
+      </c>
+      <c r="I34">
+        <v>3769</v>
+      </c>
+      <c r="J34">
+        <v>1267</v>
+      </c>
+      <c r="K34">
+        <v>5592</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0792163543441227</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1764159702878365</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2862944162436549</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4204035874439462</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5526960784313726</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7720279720279721</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="6"/>
+        <v>1.9796875</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="7"/>
+        <v>2.3860640301318266</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="8"/>
+        <v>2.7663755458515285</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" si="9"/>
+        <v>3.223918575063613</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="10"/>
+        <v>3.0534233581530232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37">
+        <f>EXP(INDEX(LINEST(LN(N25:N34),M25:M34),1,2))</f>
+        <v>1.1892570303539514</v>
+      </c>
+      <c r="O37">
+        <f>EXP(INDEX(LINEST(LN(O25:O34),M25:M34),1,2))</f>
+        <v>1.4048006603160939</v>
+      </c>
+      <c r="P37">
+        <f>EXP(INDEX(LINEST(LN(P25:P34),M25:M34),1,2))</f>
+        <v>1.6938357176671544</v>
+      </c>
+      <c r="Q37">
+        <f>EXP(INDEX(LINEST(LN(Q25:Q34),M25:M34),1,2))</f>
+        <v>2.0436024964891355</v>
+      </c>
+      <c r="R37">
+        <f>EXP(INDEX(LINEST(LN(R25:R34),M25:M34),1,2))</f>
+        <v>2.4784169908042295</v>
+      </c>
+      <c r="S37">
+        <f>EXP(INDEX(LINEST(LN(S25:S34),M25:M34),1,2))</f>
+        <v>3.1670744835877604</v>
+      </c>
+      <c r="T37">
+        <f>EXP(INDEX(LINEST(LN(T25:T34),M25:M34),1,2))</f>
+        <v>4.1412541686615381</v>
+      </c>
+      <c r="U37">
+        <f>EXP(INDEX(LINEST(LN(U25:U34),M25:M34),1,2))</f>
+        <v>5.5269781390647239</v>
+      </c>
+      <c r="V37">
+        <f>EXP(INDEX(LINEST(LN(V25:V34),M25:M34),1,2))</f>
+        <v>7.3239270985499649</v>
+      </c>
+      <c r="W37">
+        <f>EXP(INDEX(LINEST(LN(W25:W34),M25:M34),1,2))</f>
+        <v>9.6432981987852102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38">
+        <f>INDEX(LINEST(LN(N25:N34),M25:M34),1)</f>
+        <v>-1.0230729282517389E-2</v>
+      </c>
+      <c r="O38">
+        <f>INDEX(LINEST(LN(O25:O34),M25:M34),1)</f>
+        <v>-1.8302242647847768E-2</v>
+      </c>
+      <c r="P38">
+        <f>INDEX(LINEST(LN(P25:P34),M25:M34),1)</f>
+        <v>-2.8084816237155211E-2</v>
+      </c>
+      <c r="Q38">
+        <f>INDEX(LINEST(LN(Q25:Q34),M25:M34),1)</f>
+        <v>-3.661828837114077E-2</v>
+      </c>
+      <c r="R38">
+        <f>INDEX(LINEST(LN(R25:R34),M25:M34),1)</f>
+        <v>-4.4598241765939808E-2</v>
+      </c>
+      <c r="S38">
+        <f>INDEX(LINEST(LN(S25:S34),M25:M34),1)</f>
+        <v>-5.7890508384312853E-2</v>
+      </c>
+      <c r="T38">
+        <f>INDEX(LINEST(LN(T25:T34),M25:M34),1)</f>
+        <v>-7.310885800525263E-2</v>
+      </c>
+      <c r="U38">
+        <f>INDEX(LINEST(LN(U25:U34),M25:M34),1)</f>
+        <v>-8.8883556970302008E-2</v>
+      </c>
+      <c r="V38">
+        <f>INDEX(LINEST(LN(V25:V34),M25:M34),1)</f>
+        <v>-0.10322515288366269</v>
+      </c>
+      <c r="W38">
+        <f>INDEX(LINEST(LN(W25:W34),M25:M34),1)</f>
+        <v>-0.11503692826276904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:W39" si="11">PEARSON(N25:N34,N43:N52)</f>
+        <v>0.84804483891966043</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="11"/>
+        <v>0.89974994023405552</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="11"/>
+        <v>0.93362239803126856</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="11"/>
+        <v>0.96820677174686687</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="11"/>
+        <v>0.97047996983372542</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="11"/>
+        <v>0.98072125014122857</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="11"/>
+        <v>0.98762469972850364</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="11"/>
+        <v>0.98424623198811445</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="11"/>
+        <v>0.98962266667519183</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="11"/>
+        <v>0.98429433102309449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>68</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:W40" si="12">INT(0.5-LN(N37)/N38)</f>
+        <v>17</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>54</v>
+      </c>
+      <c r="N41" s="2">
+        <f>N40+A24</f>
+        <v>43924</v>
+      </c>
+      <c r="O41" s="2">
+        <f>O40+A24</f>
+        <v>43926</v>
+      </c>
+      <c r="P41" s="2">
+        <f>P40+A24</f>
+        <v>43926</v>
+      </c>
+      <c r="Q41" s="2">
+        <f>Q40+A24</f>
+        <v>43927</v>
+      </c>
+      <c r="R41" s="2">
+        <f>R40+A24</f>
+        <v>43927</v>
+      </c>
+      <c r="S41" s="2">
+        <f>S40+A24</f>
+        <v>43927</v>
+      </c>
+      <c r="T41" s="2">
+        <f>T40+A24</f>
+        <v>43926</v>
+      </c>
+      <c r="U41" s="2">
+        <f>U40+A24</f>
+        <v>43926</v>
+      </c>
+      <c r="V41" s="2">
+        <f>V40+A24</f>
+        <v>43926</v>
+      </c>
+      <c r="W41" s="2">
+        <f>W40+A24</f>
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f>N37*EXP(N38*M25)</f>
+        <v>1.177152090393883</v>
+      </c>
+      <c r="O43">
+        <f>O37*EXP(O38*M25)</f>
+        <v>1.3793235133953745</v>
+      </c>
+      <c r="P43">
+        <f>P37*EXP(P38*M25)</f>
+        <v>1.6469264551031966</v>
+      </c>
+      <c r="Q43">
+        <f>Q37*EXP(Q38*M25)</f>
+        <v>1.9701228312924137</v>
+      </c>
+      <c r="R43">
+        <f>R37*EXP(R38*M25)</f>
+        <v>2.3703125034366899</v>
+      </c>
+      <c r="S43">
+        <f>S37*EXP(S38*M25)</f>
+        <v>2.9889369155824372</v>
+      </c>
+      <c r="T43">
+        <f>T37*EXP(T38*M25)</f>
+        <v>3.8492942632323923</v>
+      </c>
+      <c r="U43">
+        <f>U37*EXP(U38*M25)</f>
+        <v>5.0569202946041614</v>
+      </c>
+      <c r="V43">
+        <f>V37*EXP(V38*M25)</f>
+        <v>6.605624744509778</v>
+      </c>
+      <c r="W43">
+        <f>W37*EXP(W38*M25)</f>
+        <v>8.5953921112355527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f>N37*EXP(N38*M26)</f>
+        <v>1.1651703614535496</v>
+      </c>
+      <c r="O44">
+        <f>O37*EXP(O38*M26)</f>
+        <v>1.354308414246667</v>
+      </c>
+      <c r="P44">
+        <f>P37*EXP(P38*M26)</f>
+        <v>1.6013163025363553</v>
+      </c>
+      <c r="Q44">
+        <f>Q37*EXP(Q38*M26)</f>
+        <v>1.8992851971201685</v>
+      </c>
+      <c r="R44">
+        <f>R37*EXP(R38*M26)</f>
+        <v>2.2669233566403131</v>
+      </c>
+      <c r="S44">
+        <f>S37*EXP(S38*M26)</f>
+        <v>2.8208190024034523</v>
+      </c>
+      <c r="T44">
+        <f>T37*EXP(T38*M26)</f>
+        <v>3.5779176359374993</v>
+      </c>
+      <c r="U44">
+        <f>U37*EXP(U38*M26)</f>
+        <v>4.6268398793245122</v>
+      </c>
+      <c r="V44">
+        <f>V37*EXP(V38*M26)</f>
+        <v>5.9577706984438512</v>
+      </c>
+      <c r="W44">
+        <f>W37*EXP(W38*M26)</f>
+        <v>7.6613585956718957</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f>N37*EXP(N38*M27)</f>
+        <v>1.1533105894205447</v>
+      </c>
+      <c r="O45">
+        <f>O37*EXP(O38*M27)</f>
+        <v>1.3297469832761226</v>
+      </c>
+      <c r="P45">
+        <f>P37*EXP(P38*M27)</f>
+        <v>1.556969282279232</v>
+      </c>
+      <c r="Q45">
+        <f>Q37*EXP(Q38*M27)</f>
+        <v>1.83099459724214</v>
+      </c>
+      <c r="R45">
+        <f>R37*EXP(R38*M27)</f>
+        <v>2.1680438749871547</v>
+      </c>
+      <c r="S45">
+        <f>S37*EXP(S38*M27)</f>
+        <v>2.6621571712796976</v>
+      </c>
+      <c r="T45">
+        <f>T37*EXP(T38*M27)</f>
+        <v>3.325673158279852</v>
+      </c>
+      <c r="U45">
+        <f>U37*EXP(U38*M27)</f>
+        <v>4.2333368971130643</v>
+      </c>
+      <c r="V45">
+        <f>V37*EXP(V38*M27)</f>
+        <v>5.3734556636353883</v>
+      </c>
+      <c r="W45">
+        <f>W37*EXP(W38*M27)</f>
+        <v>6.8288234872670941</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f>N37*EXP(N38*M28)</f>
+        <v>1.1415715329475367</v>
+      </c>
+      <c r="O46">
+        <f>O37*EXP(O38*M28)</f>
+        <v>1.3056309928603107</v>
+      </c>
+      <c r="P46">
+        <f>P37*EXP(P38*M28)</f>
+        <v>1.5138504130142463</v>
+      </c>
+      <c r="Q46">
+        <f>Q37*EXP(Q38*M28)</f>
+        <v>1.7651594506255661</v>
+      </c>
+      <c r="R46">
+        <f>R37*EXP(R38*M28)</f>
+        <v>2.0734773542743641</v>
+      </c>
+      <c r="S46">
+        <f>S37*EXP(S38*M28)</f>
+        <v>2.5124195485628262</v>
+      </c>
+      <c r="T46">
+        <f>T37*EXP(T38*M28)</f>
+        <v>3.0912120068423752</v>
+      </c>
+      <c r="U46">
+        <f>U37*EXP(U38*M28)</f>
+        <v>3.8733005143621342</v>
+      </c>
+      <c r="V46">
+        <f>V37*EXP(V38*M28)</f>
+        <v>4.8464479803824982</v>
+      </c>
+      <c r="W46">
+        <f>W37*EXP(W38*M28)</f>
+        <v>6.086757281743064</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f>N37*EXP(N38*M29)</f>
+        <v>1.1299519633223396</v>
+      </c>
+      <c r="O47">
+        <f>O37*EXP(O38*M29)</f>
+        <v>1.2819523645901174</v>
+      </c>
+      <c r="P47">
+        <f>P37*EXP(P38*M29)</f>
+        <v>1.4719256822000648</v>
+      </c>
+      <c r="Q47">
+        <f>Q37*EXP(Q38*M29)</f>
+        <v>1.7016914691205407</v>
+      </c>
+      <c r="R47">
+        <f>R37*EXP(R38*M29)</f>
+        <v>1.9830356702140493</v>
+      </c>
+      <c r="S47">
+        <f>S37*EXP(S38*M29)</f>
+        <v>2.3711041767554009</v>
+      </c>
+      <c r="T47">
+        <f>T37*EXP(T38*M29)</f>
+        <v>2.8732804507430711</v>
+      </c>
+      <c r="U47">
+        <f>U37*EXP(U38*M29)</f>
+        <v>3.5438844673073238</v>
+      </c>
+      <c r="V47">
+        <f>V37*EXP(V38*M29)</f>
+        <v>4.3711271659889075</v>
+      </c>
+      <c r="W47">
+        <f>W37*EXP(W38*M29)</f>
+        <v>5.4253290154493534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f>N37*EXP(N38*M30)</f>
+        <v>1.1184506643393035</v>
+      </c>
+      <c r="O48">
+        <f>O37*EXP(O38*M30)</f>
+        <v>1.2587031665646289</v>
+      </c>
+      <c r="P48">
+        <f>P37*EXP(P38*M30)</f>
+        <v>1.4311620192422125</v>
+      </c>
+      <c r="Q48">
+        <f>Q37*EXP(Q38*M30)</f>
+        <v>1.6405055390612899</v>
+      </c>
+      <c r="R48">
+        <f>R37*EXP(R38*M30)</f>
+        <v>1.8965389041914471</v>
+      </c>
+      <c r="S48">
+        <f>S37*EXP(S38*M30)</f>
+        <v>2.2377373318253819</v>
+      </c>
+      <c r="T48">
+        <f>T37*EXP(T38*M30)</f>
+        <v>2.6707131475771586</v>
+      </c>
+      <c r="U48">
+        <f>U37*EXP(U38*M30)</f>
+        <v>3.2424845609198454</v>
+      </c>
+      <c r="V48">
+        <f>V37*EXP(V38*M30)</f>
+        <v>3.9424239728945265</v>
+      </c>
+      <c r="W48">
+        <f>W37*EXP(W38*M30)</f>
+        <v>4.8357760238219294</v>
+      </c>
+    </row>
+    <row r="49" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f>N37*EXP(N38*M31)</f>
+        <v>1.1070664321720181</v>
+      </c>
+      <c r="O49">
+        <f>O37*EXP(O38*M31)</f>
+        <v>1.2358756107340911</v>
+      </c>
+      <c r="P49">
+        <f>P37*EXP(P38*M31)</f>
+        <v>1.3915272694066982</v>
+      </c>
+      <c r="Q49">
+        <f>Q37*EXP(Q38*M31)</f>
+        <v>1.5815196071245836</v>
+      </c>
+      <c r="R49">
+        <f>R37*EXP(R38*M31)</f>
+        <v>1.8138149853469099</v>
+      </c>
+      <c r="S49">
+        <f>S37*EXP(S38*M31)</f>
+        <v>2.1118719351661532</v>
+      </c>
+      <c r="T49">
+        <f>T37*EXP(T38*M31)</f>
+        <v>2.4824269119977043</v>
+      </c>
+      <c r="U49">
+        <f>U37*EXP(U38*M31)</f>
+        <v>2.966718081470634</v>
+      </c>
+      <c r="V49">
+        <f>V37*EXP(V38*M31)</f>
+        <v>3.5557663256720038</v>
+      </c>
+      <c r="W49">
+        <f>W37*EXP(W38*M31)</f>
+        <v>4.310287852769827</v>
+      </c>
+    </row>
+    <row r="50" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f>N37*EXP(N38*M32)</f>
+        <v>1.0957980752473078</v>
+      </c>
+      <c r="O50">
+        <f>O37*EXP(O38*M32)</f>
+        <v>1.2134620502910591</v>
+      </c>
+      <c r="P50">
+        <f>P37*EXP(P38*M32)</f>
+        <v>1.3529901684560774</v>
+      </c>
+      <c r="Q50">
+        <f>Q37*EXP(Q38*M32)</f>
+        <v>1.5246545702922198</v>
+      </c>
+      <c r="R50">
+        <f>R37*EXP(R38*M32)</f>
+        <v>1.7346993482696875</v>
+      </c>
+      <c r="S50">
+        <f>S37*EXP(S38*M32)</f>
+        <v>1.9930860548786082</v>
+      </c>
+      <c r="T50">
+        <f>T37*EXP(T38*M32)</f>
+        <v>2.3074149236135519</v>
+      </c>
+      <c r="U50">
+        <f>U37*EXP(U38*M32)</f>
+        <v>2.7144049600125051</v>
+      </c>
+      <c r="V50">
+        <f>V37*EXP(V38*M32)</f>
+        <v>3.2070305603129108</v>
+      </c>
+      <c r="W50">
+        <f>W37*EXP(W38*M32)</f>
+        <v>3.8419027850366905</v>
+      </c>
+    </row>
+    <row r="51" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <f>N37*EXP(N38*M33)</f>
+        <v>1.0846444141205123</v>
+      </c>
+      <c r="O51">
+        <f>O37*EXP(O38*M33)</f>
+        <v>1.1914549771088565</v>
+      </c>
+      <c r="P51">
+        <f>P37*EXP(P38*M33)</f>
+        <v>1.3155203179879513</v>
+      </c>
+      <c r="Q51">
+        <f>Q37*EXP(Q38*M33)</f>
+        <v>1.4698341697700092</v>
+      </c>
+      <c r="R51">
+        <f>R37*EXP(R38*M33)</f>
+        <v>1.6590346056225482</v>
+      </c>
+      <c r="S51">
+        <f>S37*EXP(S38*M33)</f>
+        <v>1.8809814913512</v>
+      </c>
+      <c r="T51">
+        <f>T37*EXP(T38*M33)</f>
+        <v>2.1447413432325284</v>
+      </c>
+      <c r="U51">
+        <f>U37*EXP(U38*M33)</f>
+        <v>2.4835505378684637</v>
+      </c>
+      <c r="V51">
+        <f>V37*EXP(V38*M33)</f>
+        <v>2.8924974457755379</v>
+      </c>
+      <c r="W51">
+        <f>W37*EXP(W38*M33)</f>
+        <v>3.4244156107086079</v>
+      </c>
+    </row>
+    <row r="52" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <f>N37*EXP(N38*M34)</f>
+        <v>1.0736042813520354</v>
+      </c>
+      <c r="O52">
+        <f>O37*EXP(O38*M34)</f>
+        <v>1.1698470192264945</v>
+      </c>
+      <c r="P52">
+        <f>P37*EXP(P38*M34)</f>
+        <v>1.2790881614564378</v>
+      </c>
+      <c r="Q52">
+        <f>Q37*EXP(Q38*M34)</f>
+        <v>1.4169848887210044</v>
+      </c>
+      <c r="R52">
+        <f>R37*EXP(R38*M34)</f>
+        <v>1.5866702350459747</v>
+      </c>
+      <c r="S52">
+        <f>S37*EXP(S38*M34)</f>
+        <v>1.7751824423964853</v>
+      </c>
+      <c r="T52">
+        <f>T37*EXP(T38*M34)</f>
+        <v>1.9935363086614357</v>
+      </c>
+      <c r="U52">
+        <f>U37*EXP(U38*M34)</f>
+        <v>2.2723297978789128</v>
+      </c>
+      <c r="V52">
+        <f>V37*EXP(V38*M34)</f>
+        <v>2.6088125187686657</v>
+      </c>
+      <c r="W52">
+        <f>W37*EXP(W38*M34)</f>
+        <v>3.052295420003142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B038364-259B-4F47-83D7-9C5B99B50906}">
+  <dimension ref="A1:W51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>148</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>391</v>
+      </c>
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>577</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>1033</v>
+      </c>
+      <c r="E5">
+        <v>97</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>96</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>1277</v>
+      </c>
+      <c r="E6">
+        <v>145</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>143</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>62</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>1550</v>
+      </c>
+      <c r="E7">
+        <v>217</v>
+      </c>
+      <c r="F7">
+        <v>86</v>
+      </c>
+      <c r="G7">
+        <v>213</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>97</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>1795</v>
+      </c>
+      <c r="E8">
+        <v>285</v>
+      </c>
+      <c r="F8">
+        <v>127</v>
+      </c>
+      <c r="G8">
+        <v>277</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>140</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>1973</v>
+      </c>
+      <c r="E9">
+        <v>335</v>
+      </c>
+      <c r="F9">
+        <v>148</v>
+      </c>
+      <c r="G9">
+        <v>324</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>164</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>2012</v>
+      </c>
+      <c r="E10">
+        <v>420</v>
+      </c>
+      <c r="F10">
+        <v>187</v>
+      </c>
+      <c r="G10">
+        <v>398</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>211</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>2500</v>
+      </c>
+      <c r="E11">
+        <v>544</v>
+      </c>
+      <c r="F11">
+        <v>256</v>
+      </c>
+      <c r="G11">
+        <v>516</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>282</v>
+      </c>
+      <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>142</v>
+      </c>
+      <c r="D12">
+        <v>2884</v>
+      </c>
+      <c r="E12">
+        <v>698</v>
+      </c>
+      <c r="F12">
+        <v>327</v>
+      </c>
+      <c r="G12">
+        <v>658</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>359</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>158</v>
+      </c>
+      <c r="D13">
+        <v>3136</v>
+      </c>
+      <c r="E13">
+        <v>870</v>
+      </c>
+      <c r="F13">
+        <v>397</v>
+      </c>
+      <c r="G13">
+        <v>816</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <v>450</v>
+      </c>
+      <c r="J13">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>121</v>
+      </c>
+      <c r="D14">
+        <v>3604</v>
+      </c>
+      <c r="E14">
+        <v>1010</v>
+      </c>
+      <c r="F14">
+        <v>464</v>
+      </c>
+      <c r="G14">
+        <v>937</v>
+      </c>
+      <c r="H14">
+        <v>25</v>
+      </c>
+      <c r="I14">
+        <v>528</v>
+      </c>
+      <c r="J14">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>160</v>
+      </c>
+      <c r="D15">
+        <v>4344</v>
+      </c>
+      <c r="E15">
+        <v>1180</v>
+      </c>
+      <c r="F15">
+        <v>542</v>
+      </c>
+      <c r="G15">
+        <v>1097</v>
+      </c>
+      <c r="H15">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>617</v>
+      </c>
+      <c r="J15">
+        <v>56</v>
+      </c>
+      <c r="K15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>189</v>
+      </c>
+      <c r="D16">
+        <v>4906</v>
+      </c>
+      <c r="E16">
+        <v>1386</v>
+      </c>
+      <c r="F16">
+        <v>576</v>
+      </c>
+      <c r="G16">
+        <v>1286</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>666</v>
+      </c>
+      <c r="J16">
+        <v>70</v>
+      </c>
+      <c r="K16">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>98</v>
+      </c>
+      <c r="C17">
+        <v>131</v>
+      </c>
+      <c r="D17">
+        <v>5494</v>
+      </c>
+      <c r="E17">
+        <v>1533</v>
+      </c>
+      <c r="F17">
+        <v>669</v>
+      </c>
+      <c r="G17">
+        <v>1417</v>
+      </c>
+      <c r="H17">
+        <v>31</v>
+      </c>
+      <c r="I17">
+        <v>767</v>
+      </c>
+      <c r="J17">
+        <v>85</v>
+      </c>
+      <c r="K17">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>104</v>
+      </c>
+      <c r="C18">
+        <v>171</v>
+      </c>
+      <c r="D18">
+        <v>6640</v>
+      </c>
+      <c r="E18">
+        <v>1739</v>
+      </c>
+      <c r="F18">
+        <v>745</v>
+      </c>
+      <c r="G18">
+        <v>1588</v>
+      </c>
+      <c r="H18">
+        <v>38</v>
+      </c>
+      <c r="I18">
+        <v>849</v>
+      </c>
+      <c r="J18">
+        <v>113</v>
+      </c>
+      <c r="K18">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>170</v>
+      </c>
+      <c r="D19">
+        <v>7600</v>
+      </c>
+      <c r="E19">
+        <v>1947</v>
+      </c>
+      <c r="F19">
+        <v>814</v>
+      </c>
+      <c r="G19">
+        <v>1758</v>
+      </c>
+      <c r="H19">
+        <v>43</v>
+      </c>
+      <c r="I19">
+        <v>926</v>
+      </c>
+      <c r="J19">
+        <v>146</v>
+      </c>
+      <c r="K19">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>128</v>
+      </c>
+      <c r="C20">
+        <v>253</v>
+      </c>
+      <c r="D20">
+        <v>8787</v>
+      </c>
+      <c r="E20">
+        <v>2263</v>
+      </c>
+      <c r="F20">
+        <v>942</v>
+      </c>
+      <c r="G20">
+        <v>2011</v>
+      </c>
+      <c r="H20">
+        <v>51</v>
+      </c>
+      <c r="I20">
+        <v>1070</v>
+      </c>
+      <c r="J20">
+        <v>201</v>
+      </c>
+      <c r="K20">
+        <v>941</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N33" si="0">J20/J19</f>
+        <v>1.3767123287671232</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ref="O20:O33" si="1">J20/J18</f>
+        <v>1.7787610619469028</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ref="P20:P33" si="2">J20/J17</f>
+        <v>2.3647058823529412</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:Q33" si="3">J20/J16</f>
+        <v>2.8714285714285714</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" ref="R20:R33" si="4">J20/J15</f>
+        <v>3.5892857142857144</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S33" si="5">J20/J14</f>
+        <v>4.1875</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" ref="T20:T33" si="6">J20/J13</f>
+        <v>5.4324324324324325</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:U33" si="7">J20/J12</f>
+        <v>6.7</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" ref="V20:V33" si="8">J20/J11</f>
+        <v>9.1363636363636367</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" ref="W20:W33" si="9">J20/J10</f>
+        <v>11.166666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>152</v>
+      </c>
+      <c r="C21">
+        <v>338</v>
+      </c>
+      <c r="D21">
+        <v>10043</v>
+      </c>
+      <c r="E21">
+        <v>2644</v>
+      </c>
+      <c r="F21">
+        <v>1076</v>
+      </c>
+      <c r="G21">
+        <v>2349</v>
+      </c>
+      <c r="H21">
+        <v>54</v>
+      </c>
+      <c r="I21">
+        <v>1228</v>
+      </c>
+      <c r="J21">
+        <v>241</v>
+      </c>
+      <c r="K21">
+        <v>1121</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1990049751243781</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6506849315068493</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1327433628318584</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.835294117647059</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4428571428571431</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3035714285714288</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="6"/>
+        <v>5.020833333333333</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="7"/>
+        <v>6.5135135135135132</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="8"/>
+        <v>8.0333333333333332</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="9"/>
+        <v>10.954545454545455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>169</v>
+      </c>
+      <c r="C22">
+        <v>392</v>
+      </c>
+      <c r="D22">
+        <v>12054</v>
+      </c>
+      <c r="E22">
+        <v>3093</v>
+      </c>
+      <c r="F22">
+        <v>1215</v>
+      </c>
+      <c r="G22">
+        <v>2741</v>
+      </c>
+      <c r="H22">
+        <v>68</v>
+      </c>
+      <c r="I22">
+        <v>1384</v>
+      </c>
+      <c r="J22">
+        <v>284</v>
+      </c>
+      <c r="K22">
+        <v>1357</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1784232365145229</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4129353233830846</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9452054794520548</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5132743362831858</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3411764705882354</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0571428571428569</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="6"/>
+        <v>5.0714285714285712</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="7"/>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="8"/>
+        <v>7.6756756756756754</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="9"/>
+        <v>9.4666666666666668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>197</v>
+      </c>
+      <c r="C23">
+        <v>347</v>
+      </c>
+      <c r="D23">
+        <v>13096</v>
+      </c>
+      <c r="E23">
+        <v>3522</v>
+      </c>
+      <c r="F23">
+        <v>1362</v>
+      </c>
+      <c r="G23">
+        <v>3088</v>
+      </c>
+      <c r="H23">
+        <v>88</v>
+      </c>
+      <c r="I23">
+        <v>1559</v>
+      </c>
+      <c r="J23">
+        <v>346</v>
+      </c>
+      <c r="K23">
+        <v>1529</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2183098591549295</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4356846473029046</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7213930348258706</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3698630136986303</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0619469026548671</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0705882352941174</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="6"/>
+        <v>4.9428571428571431</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="7"/>
+        <v>6.1785714285714288</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="8"/>
+        <v>7.208333333333333</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="9"/>
+        <v>9.3513513513513509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>223</v>
+      </c>
+      <c r="C24">
+        <v>316</v>
+      </c>
+      <c r="D24">
+        <v>14510</v>
+      </c>
+      <c r="E24">
+        <v>3931</v>
+      </c>
+      <c r="F24">
+        <v>1566</v>
+      </c>
+      <c r="G24">
+        <v>3404</v>
+      </c>
+      <c r="H24">
+        <v>134</v>
+      </c>
+      <c r="I24">
+        <v>1789</v>
+      </c>
+      <c r="J24">
+        <v>393</v>
+      </c>
+      <c r="K24">
+        <v>1615</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1358381502890174</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3838028169014085</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6307053941908713</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="3"/>
+        <v>1.955223880597015</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6917808219178081</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4778761061946901</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6235294117647054</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="7"/>
+        <v>5.6142857142857139</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="8"/>
+        <v>7.0178571428571432</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="9"/>
+        <v>8.1875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>247</v>
+      </c>
+      <c r="C25">
+        <v>511</v>
+      </c>
+      <c r="D25">
+        <v>15461</v>
+      </c>
+      <c r="E25">
+        <v>4525</v>
+      </c>
+      <c r="F25">
+        <v>1784</v>
+      </c>
+      <c r="G25">
+        <v>3915</v>
+      </c>
+      <c r="H25">
+        <v>152</v>
+      </c>
+      <c r="I25">
+        <v>2031</v>
+      </c>
+      <c r="J25">
+        <v>458</v>
+      </c>
+      <c r="K25">
+        <v>1884</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1653944020356235</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.323699421965318</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6126760563380282</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="3"/>
+        <v>1.900414937759336</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2786069651741294</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1369863013698631</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="6"/>
+        <v>4.053097345132743</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3882352941176475</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="8"/>
+        <v>6.5428571428571427</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="9"/>
+        <v>8.1785714285714288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>260</v>
+      </c>
+      <c r="C26">
+        <v>591</v>
+      </c>
+      <c r="D26">
+        <v>18344</v>
+      </c>
+      <c r="E26">
+        <v>5214</v>
+      </c>
+      <c r="F26">
+        <v>1900</v>
+      </c>
+      <c r="G26">
+        <v>4506</v>
+      </c>
+      <c r="H26">
+        <v>177</v>
+      </c>
+      <c r="I26">
+        <v>2160</v>
+      </c>
+      <c r="J26">
+        <v>531</v>
+      </c>
+      <c r="K26">
+        <v>2346</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1593886462882097</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3511450381679388</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5346820809248556</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.869718309859155</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="4"/>
+        <v>2.203319502074689</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6417910447761193</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="6"/>
+        <v>3.6369863013698631</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="7"/>
+        <v>4.6991150442477876</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="8"/>
+        <v>6.2470588235294118</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="9"/>
+        <v>7.5857142857142854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>267</v>
+      </c>
+      <c r="C27">
+        <v>583</v>
+      </c>
+      <c r="D27">
+        <v>20753</v>
+      </c>
+      <c r="E27">
+        <v>5968</v>
+      </c>
+      <c r="F27">
+        <v>2083</v>
+      </c>
+      <c r="G27">
+        <v>5089</v>
+      </c>
+      <c r="H27">
+        <v>239</v>
+      </c>
+      <c r="I27">
+        <v>2350</v>
+      </c>
+      <c r="J27">
+        <v>640</v>
+      </c>
+      <c r="K27">
+        <v>2739</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2052730696798493</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3973799126637554</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6284987277353689</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8497109826589595</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2535211267605635</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6556016597510372</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1840796019900499</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3835616438356162</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="8"/>
+        <v>5.663716814159292</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="9"/>
+        <v>7.5294117647058822</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>265</v>
+      </c>
+      <c r="C28">
+        <v>572</v>
+      </c>
+      <c r="D28">
+        <v>24620</v>
+      </c>
+      <c r="E28">
+        <v>6705</v>
+      </c>
+      <c r="F28">
+        <v>2267</v>
+      </c>
+      <c r="G28">
+        <v>5661</v>
+      </c>
+      <c r="H28">
+        <v>329</v>
+      </c>
+      <c r="I28">
+        <v>2532</v>
+      </c>
+      <c r="J28">
+        <v>715</v>
+      </c>
+      <c r="K28">
+        <v>3129</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1171875</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3465160075329567</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5611353711790392</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8193384223918576</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0664739884393062</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="5"/>
+        <v>2.517605633802817</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="6"/>
+        <v>2.9668049792531122</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="7"/>
+        <v>3.5572139303482588</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="8"/>
+        <v>4.897260273972603</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="9"/>
+        <v>6.3274336283185839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>269</v>
+      </c>
+      <c r="C29">
+        <v>729</v>
+      </c>
+      <c r="D29">
+        <v>28022</v>
+      </c>
+      <c r="E29">
+        <v>7555</v>
+      </c>
+      <c r="F29">
+        <v>2429</v>
+      </c>
+      <c r="G29">
+        <v>6390</v>
+      </c>
+      <c r="H29">
+        <v>349</v>
+      </c>
+      <c r="I29">
+        <v>2698</v>
+      </c>
+      <c r="J29">
+        <v>816</v>
+      </c>
+      <c r="K29">
+        <v>3692</v>
+      </c>
+      <c r="M29">
+        <v>6</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1412587412587412</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.536723163841808</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7816593886462881</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0763358778625953</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3583815028901736</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8732394366197185</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="7"/>
+        <v>3.3858921161825726</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="8"/>
+        <v>4.0597014925373136</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="9"/>
+        <v>5.5890410958904111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>276</v>
+      </c>
+      <c r="C30">
+        <v>830</v>
+      </c>
+      <c r="D30">
+        <v>31200</v>
+      </c>
+      <c r="E30">
+        <v>8535</v>
+      </c>
+      <c r="F30">
+        <v>2846</v>
+      </c>
+      <c r="G30">
+        <v>7220</v>
+      </c>
+      <c r="H30">
+        <v>423</v>
+      </c>
+      <c r="I30">
+        <v>3122</v>
+      </c>
+      <c r="J30">
+        <v>892</v>
+      </c>
+      <c r="K30">
+        <v>4098</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0931372549019607</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2475524475524475</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.39375</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="3"/>
+        <v>1.67984934086629</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9475982532751093</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2697201017811706</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5780346820809248</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="7"/>
+        <v>3.140845070422535</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="8"/>
+        <v>3.7012448132780085</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="9"/>
+        <v>4.4378109452736316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>291</v>
+      </c>
+      <c r="C31">
+        <v>491</v>
+      </c>
+      <c r="D31">
+        <v>33527</v>
+      </c>
+      <c r="E31">
+        <v>9254</v>
+      </c>
+      <c r="F31">
+        <v>2974</v>
+      </c>
+      <c r="G31">
+        <v>7711</v>
+      </c>
+      <c r="H31">
+        <v>558</v>
+      </c>
+      <c r="I31">
+        <v>3265</v>
+      </c>
+      <c r="J31">
+        <v>985</v>
+      </c>
+      <c r="K31">
+        <v>4446</v>
+      </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1042600896860986</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2071078431372548</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3776223776223777</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5390625</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8549905838041432</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1506550218340612</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5063613231552164</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="7"/>
+        <v>2.846820809248555</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="8"/>
+        <v>3.4683098591549295</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="9"/>
+        <v>4.0871369294605806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>294</v>
+      </c>
+      <c r="C32">
+        <v>545</v>
+      </c>
+      <c r="D32">
+        <v>38045</v>
+      </c>
+      <c r="E32">
+        <v>10054</v>
+      </c>
+      <c r="F32">
+        <v>3180</v>
+      </c>
+      <c r="G32">
+        <v>8256</v>
+      </c>
+      <c r="H32">
+        <v>721</v>
+      </c>
+      <c r="I32">
+        <v>3474</v>
+      </c>
+      <c r="J32">
+        <v>1077</v>
+      </c>
+      <c r="K32">
+        <v>4782</v>
+      </c>
+      <c r="M32">
+        <v>9</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0934010152284264</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2073991031390134</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3198529411764706</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5062937062937063</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6828125</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0282485875706215</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3515283842794759</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7404580152671754</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="8"/>
+        <v>3.1127167630057802</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7922535211267605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>301</v>
+      </c>
+      <c r="C33">
+        <v>594</v>
+      </c>
+      <c r="D33">
+        <v>42395</v>
+      </c>
+      <c r="E33">
+        <v>10816</v>
+      </c>
+      <c r="F33">
+        <v>3354</v>
+      </c>
+      <c r="G33">
+        <v>8850</v>
+      </c>
+      <c r="H33">
+        <v>792</v>
+      </c>
+      <c r="I33">
+        <v>3655</v>
+      </c>
+      <c r="J33">
+        <v>1174</v>
+      </c>
+      <c r="K33">
+        <v>5195</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0900649953574744</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1918781725888326</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3161434977578474</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4387254901960784</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="4"/>
+        <v>1.641958041958042</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8343750000000001</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2109227871939736</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5633187772925763</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="8"/>
+        <v>2.9872773536895676</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="9"/>
+        <v>3.3930635838150289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36">
+        <f>EXP(INDEX(LINEST(LN(N24:N33),M24:M33),1,2))</f>
+        <v>1.1812422583686486</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36:W36" si="10">EXP(INDEX(LINEST(LN(O24:O33),N24:N33),1,2))</f>
+        <v>0.30841271015153537</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="10"/>
+        <v>0.38296042534623992</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="10"/>
+        <v>0.50939187540526942</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="10"/>
+        <v>0.52921012538388956</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="10"/>
+        <v>0.70722727680569752</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="10"/>
+        <v>0.92084482331280504</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="10"/>
+        <v>1.2454760397307094</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="10"/>
+        <v>1.5623450241157213</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="10"/>
+        <v>1.9909053509596719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37">
+        <f>INDEX(LINEST(LN(N24:N33),M24:M33),1)</f>
+        <v>-8.0715133653304072E-3</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ref="O37:W37" si="11">INDEX(LINEST(LN(O24:O33),N24:N33),1)</f>
+        <v>1.2664838321404348</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="11"/>
+        <v>1.0486637108339565</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="11"/>
+        <v>0.81801558189760371</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="11"/>
+        <v>0.780692435935328</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="11"/>
+        <v>0.60309195584101516</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="11"/>
+        <v>0.47312601851383917</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="11"/>
+        <v>0.35076499602146149</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="11"/>
+        <v>0.27931093277035884</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="11"/>
+        <v>0.21765518235160303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38">
+        <f>PEARSON(N24:N33,N42:N51)</f>
+        <v>0.72185279736968089</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:W38" si="12">PEARSON(O24:O33,O42:O51)</f>
+        <v>0.80134397094101029</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="12"/>
+        <v>0.93543972610896065</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="12"/>
+        <v>0.95603029893095692</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="12"/>
+        <v>0.93997998801506877</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="12"/>
+        <v>0.96260764910192442</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="12"/>
+        <v>0.97940731045107821</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="12"/>
+        <v>0.95856538832921634</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="12"/>
+        <v>0.96867747082773226</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="12"/>
+        <v>0.9620082136727035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>68</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:W39" si="13">INT(0.5-LN(N36)/N37)</f>
+        <v>21</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="13"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40" s="2">
+        <f>N39+A24</f>
+        <v>43928</v>
+      </c>
+      <c r="O40" s="2">
+        <f>O39+A24</f>
+        <v>43908</v>
+      </c>
+      <c r="P40" s="2">
+        <f>P39+A24</f>
+        <v>43908</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>Q39+A24</f>
+        <v>43908</v>
+      </c>
+      <c r="R40" s="2">
+        <f>R39+A24</f>
+        <v>43908</v>
+      </c>
+      <c r="S40" s="2">
+        <f>S39+A24</f>
+        <v>43908</v>
+      </c>
+      <c r="T40" s="2">
+        <f>T39+A24</f>
+        <v>43907</v>
+      </c>
+      <c r="U40" s="2">
+        <f>U39+A24</f>
+        <v>43906</v>
+      </c>
+      <c r="V40" s="2">
+        <f>V39+A24</f>
+        <v>43905</v>
+      </c>
+      <c r="W40" s="2">
+        <f>W39+A24</f>
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <f>N$36*EXP(N$37*M24)</f>
+        <v>1.1717462209440104</v>
+      </c>
+      <c r="O42">
+        <f t="shared" ref="O42:W42" si="14">O$36*EXP(O$37*N24)</f>
+        <v>1.2997919696669284</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="14"/>
+        <v>1.6344725841636554</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="14"/>
+        <v>1.9336410036209333</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="14"/>
+        <v>2.4352727938698258</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="14"/>
+        <v>3.5858235270411325</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="14"/>
+        <v>4.7731665466611224</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="14"/>
+        <v>6.3046666279703647</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="14"/>
+        <v>7.4956233197506172</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="14"/>
+        <v>9.1711479301400249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <f t="shared" ref="N43:W43" si="15">N$36*EXP(N$37*M25)</f>
+        <v>1.1623265224127119</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="15"/>
+        <v>1.3493685513766724</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="15"/>
+        <v>1.5346340130788076</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="15"/>
+        <v>1.9053323908268354</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="15"/>
+        <v>2.3332679848480455</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="15"/>
+        <v>2.7949279635879054</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="15"/>
+        <v>4.06220567094892</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="15"/>
+        <v>5.1613722920373837</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="15"/>
+        <v>7.0369929358767838</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="15"/>
+        <v>8.2703452052941842</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <f t="shared" ref="N44:W44" si="16">N$36*EXP(N$37*M26)</f>
+        <v>1.1529825490843923</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="16"/>
+        <v>1.3391439288672471</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="16"/>
+        <v>1.5794444106687004</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="16"/>
+        <v>1.7875682730139821</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="16"/>
+        <v>2.2780167735815575</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="16"/>
+        <v>2.6708614734122578</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="16"/>
+        <v>3.2137431067262456</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="16"/>
+        <v>4.4604305783135434</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="16"/>
+        <v>5.8048984377554547</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="16"/>
+        <v>7.7546620155926922</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <f t="shared" ref="N45:W45" si="17">N$36*EXP(N$37*M27)</f>
+        <v>1.1437136922021633</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="17"/>
+        <v>1.4192696823735707</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="17"/>
+        <v>1.6579103456227455</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="17"/>
+        <v>1.9301537606657664</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="17"/>
+        <v>2.2427115771440915</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="17"/>
+        <v>2.7529615668683345</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="17"/>
+        <v>3.2348109779622884</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="17"/>
+        <v>3.8052492192051988</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="17"/>
+        <v>5.3151679191581094</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="17"/>
+        <v>6.8300145335717488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <f t="shared" ref="N46:W46" si="18">N$36*EXP(N$37*M28)</f>
+        <v>1.1345193479029489</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="18"/>
+        <v>1.2694496768961059</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="18"/>
+        <v>1.5717958983759452</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="18"/>
+        <v>1.8266713810771695</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="18"/>
+        <v>2.190158753145552</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="18"/>
+        <v>2.4592849602406996</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="18"/>
+        <v>3.0303586704841443</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="18"/>
+        <v>3.526017879803272</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="18"/>
+        <v>4.2196688529021538</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="18"/>
+        <v>5.7805773397369977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <f t="shared" ref="N47:W47" si="19">N$36*EXP(N$37*M29)</f>
+        <v>1.1253989171781447</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="19"/>
+        <v>1.3087458590567047</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="19"/>
+        <v>1.4582288867982331</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="19"/>
+        <v>1.7905553572490214</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="19"/>
+        <v>2.1266719533429055</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="19"/>
+        <v>2.4739554519094442</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="19"/>
+        <v>2.8104592565971034</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="19"/>
+        <v>3.412174043700376</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="19"/>
+        <v>4.0225040164269208</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="19"/>
+        <v>4.8172563989324013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <f t="shared" ref="N48:W48" si="20">N$36*EXP(N$37*M30)</f>
+        <v>1.1163518058345918</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="20"/>
+        <v>1.2313661384539214</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="20"/>
+        <v>1.4168546164342182</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="20"/>
+        <v>1.5929243668501827</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="20"/>
+        <v>1.964182170326132</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="20"/>
+        <v>2.2891432971008592</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="20"/>
+        <v>2.6950045449576545</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="20"/>
+        <v>3.0765293987733733</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="20"/>
+        <v>3.7563970981894346</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="20"/>
+        <v>4.455701893082181</v>
+      </c>
+    </row>
+    <row r="49" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <f t="shared" ref="N49:W49" si="21">N$36*EXP(N$37*M31)</f>
+        <v>1.1073774244558661</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="21"/>
+        <v>1.2488350104816517</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="21"/>
+        <v>1.3580183844659077</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="21"/>
+        <v>1.5720474923356762</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="21"/>
+        <v>1.7597376556253057</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="21"/>
+        <v>2.1647972345996793</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="21"/>
+        <v>2.5473843906181717</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="21"/>
+        <v>3.0001480504775513</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="21"/>
+        <v>3.4602335569655822</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="21"/>
+        <v>4.2354310274164551</v>
+      </c>
+    </row>
+    <row r="50" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f t="shared" ref="N50:W50" si="22">N$36*EXP(N$37*M32)</f>
+        <v>1.0984751883638768</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="22"/>
+        <v>1.2317775427931148</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="22"/>
+        <v>1.3584332325248356</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="22"/>
+        <v>1.4994863344934788</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="22"/>
+        <v>1.7152903888938913</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="22"/>
+        <v>1.9512837390285915</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="22"/>
+        <v>2.4040466813836949</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="22"/>
+        <v>2.8415556390066925</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="22"/>
+        <v>3.3589478921548546</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="22"/>
+        <v>3.9199873241809251</v>
+      </c>
+    </row>
+    <row r="51" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <f t="shared" ref="N51:W51" si="23">N$36*EXP(N$37*M33)</f>
+        <v>1.0896445175807761</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="23"/>
+        <v>1.2265842425262412</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="23"/>
+        <v>1.3365020147943221</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="23"/>
+        <v>1.4949432156423039</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="23"/>
+        <v>1.6271538658327225</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="23"/>
+        <v>1.9037935267856014</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="23"/>
+        <v>2.1933428512052879</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="23"/>
+        <v>2.7048112744603889</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="23"/>
+        <v>3.1968017977038339</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="23"/>
+        <v>3.8144095520789434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F4C0CA-E011-437F-B71B-95C8C0DFB48C}">
-  <dimension ref="A1:W50"/>
+  <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4761,6 +12276,9 @@
       <c r="K8">
         <v>137</v>
       </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4796,6 +12314,9 @@
       <c r="K9">
         <v>160</v>
       </c>
+      <c r="N9">
+        <v>-0.6341</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4831,6 +12352,9 @@
       <c r="K10">
         <v>187</v>
       </c>
+      <c r="N10">
+        <v>9.9943000000000008</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -5042,7 +12566,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -5077,7 +12601,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -5112,7 +12636,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -5147,7 +12671,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5222,7 +12746,7 @@
         <v>11.166666666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -5297,7 +12821,7 @@
         <v>10.954545454545455</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -5372,7 +12896,7 @@
         <v>9.4666666666666668</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -5449,8 +12973,12 @@
         <f t="shared" si="9"/>
         <v>9.3513513513513509</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <f>$N$9*M23+$N$10</f>
+        <v>9.3602000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -5527,8 +13055,12 @@
         <f t="shared" si="9"/>
         <v>8.1875</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <f t="shared" ref="X24:X32" si="10">$N$9*M24+$N$10</f>
+        <v>8.7261000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -5605,8 +13137,12 @@
         <f t="shared" si="9"/>
         <v>8.1785714285714288</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <f t="shared" si="10"/>
+        <v>8.0920000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -5683,8 +13219,12 @@
         <f t="shared" si="9"/>
         <v>7.5857142857142854</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26">
+        <f t="shared" si="10"/>
+        <v>7.4579000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -5761,8 +13301,12 @@
         <f t="shared" si="9"/>
         <v>7.5294117647058822</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <f t="shared" si="10"/>
+        <v>6.8238000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -5839,8 +13383,12 @@
         <f t="shared" si="9"/>
         <v>6.3274336283185839</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28">
+        <f t="shared" si="10"/>
+        <v>6.1897000000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -5917,8 +13465,12 @@
         <f t="shared" si="9"/>
         <v>5.5890410958904111</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29">
+        <f t="shared" si="10"/>
+        <v>5.555600000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -5995,8 +13547,12 @@
         <f t="shared" si="9"/>
         <v>4.4378109452736316</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <f t="shared" si="10"/>
+        <v>4.9215000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -6073,8 +13629,12 @@
         <f t="shared" si="9"/>
         <v>4.0871369294605806</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31">
+        <f t="shared" si="10"/>
+        <v>4.2874000000000008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -6151,6 +13711,10 @@
         <f t="shared" si="9"/>
         <v>3.7922535211267605</v>
       </c>
+      <c r="X32">
+        <f t="shared" si="10"/>
+        <v>3.6533000000000007</v>
+      </c>
     </row>
     <row r="35" spans="11:23" x14ac:dyDescent="0.25">
       <c r="K35" t="s">
@@ -6250,43 +13814,43 @@
         <v>53</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:W37" si="10">PEARSON(N23:N32,N41:N50)</f>
+        <f t="shared" ref="N37:W37" si="11">PEARSON(N23:N32,N41:N50)</f>
         <v>0.76884784818224405</v>
       </c>
       <c r="O37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.90160090912852509</v>
       </c>
       <c r="P37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.92317982729704162</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.92052396381146429</v>
       </c>
       <c r="R37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94305988873030744</v>
       </c>
       <c r="S37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96079702028020653</v>
       </c>
       <c r="T37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.9885398808144259</v>
       </c>
       <c r="U37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.99264746833019435</v>
       </c>
       <c r="V37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.97899301742755152</v>
       </c>
       <c r="W37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96663887840606211</v>
       </c>
     </row>
@@ -6295,43 +13859,43 @@
         <v>62</v>
       </c>
       <c r="N38">
-        <f t="shared" ref="N38:W38" si="11">INT(0.5-LN(N35)/N36)</f>
+        <f t="shared" ref="N38:W38" si="12">INT(0.5-LN(N35)/N36)</f>
         <v>19</v>
       </c>
       <c r="O38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="P38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="R38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="S38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="T38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="U38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="V38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="W38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
